--- a/biology/Médecine/Hémangioblastome/Hémangioblastome.xlsx
+++ b/biology/Médecine/Hémangioblastome/Hémangioblastome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mangioblastome</t>
+          <t>Hémangioblastome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hémangioblastome est une tumeur vasculaire bénigne[1], à croissance lente. Elle est souvent rencontrée dans le cadre d'une maladie héréditaire, la maladie de von Hippel-Lindau. Elle en est la composante axiale. L'hémangioblastome est trouvé le plus souvent dans la fosse postérieure, au niveau du cervelet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hémangioblastome est une tumeur vasculaire bénigne, à croissance lente. Elle est souvent rencontrée dans le cadre d'une maladie héréditaire, la maladie de von Hippel-Lindau. Elle en est la composante axiale. L'hémangioblastome est trouvé le plus souvent dans la fosse postérieure, au niveau du cervelet.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mangioblastome</t>
+          <t>Hémangioblastome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme d’hémangioblastome a été forgé en 1928 (CUSHING, 1928) pour dénommer les tumeurs vasculaires du névraxe et les différencier des malformations vasculaires.
 </t>
